--- a/data/originalOutput.xlsx
+++ b/data/originalOutput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34331D44-5419-9E45-9195-D82BF502FD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629E4BA6-4097-9D4E-BDE7-2AE1EBC6DF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25500" yWindow="-15880" windowWidth="27240" windowHeight="13240" xr2:uid="{4F5B3F3D-A6FE-CC4D-99EE-881200216522}"/>
+    <workbookView xWindow="18580" yWindow="-10420" windowWidth="16420" windowHeight="9340" xr2:uid="{4F5B3F3D-A6FE-CC4D-99EE-881200216522}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
-  <si>
-    <t>料品號</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>數量</t>
-  </si>
-  <si>
-    <t>批次</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Item Number</t>
   </si>
@@ -110,12 +95,6 @@
     <t>Acetate#ELLAM2446 165x690x6.0/0.92</t>
   </si>
   <si>
-    <t>TAC11179680</t>
-  </si>
-  <si>
-    <t>Acetate#ELLAM2446 165x690x8.0/1.23</t>
-  </si>
-  <si>
     <t>TAC11179770</t>
   </si>
   <si>
@@ -153,6 +132,12 @@
   </si>
   <si>
     <t>Bio Acetate#ELBMO3153 165x1450x4.0/1.3</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>changed to 38, was 37.9</t>
   </si>
 </sst>
 </file>
@@ -631,15 +616,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7463EA16-9033-ED43-8861-1FA10BBBFDCE}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="F1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,304 +645,262 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5">
-        <v>13.5</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C4" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C5" s="5">
+        <v>7.02</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="C6" s="5">
+        <v>15.28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="C7" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5">
-        <v>7.02</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C8" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5">
-        <v>15.28</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C9" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9">
-        <v>3.8</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C10" s="9">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C13" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="13">
-        <v>15.6</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5">
+        <v>7.89</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C15" s="5">
+        <v>22.71</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="9">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="9">
-        <v>37.9</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="C16" s="9">
+        <v>27</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5">
-        <v>7.89</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="5">
-        <v>22.71</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="9">
-        <v>27</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="C17" s="9">
         <v>8.9</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="11"/>
+      <c r="D17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/originalOutput.xlsx
+++ b/data/originalOutput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629E4BA6-4097-9D4E-BDE7-2AE1EBC6DF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CC1338-0864-1B4E-B91C-6AB7A0695E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18580" yWindow="-10420" windowWidth="16420" windowHeight="9340" xr2:uid="{4F5B3F3D-A6FE-CC4D-99EE-881200216522}"/>
+    <workbookView xWindow="19820" yWindow="-18220" windowWidth="16420" windowHeight="13800" xr2:uid="{4F5B3F3D-A6FE-CC4D-99EE-881200216522}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>Item Number</t>
   </si>
@@ -616,9 +616,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7463EA16-9033-ED43-8861-1FA10BBBFDCE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -696,6 +699,9 @@
         <v>7</v>
       </c>
       <c r="E4" s="11"/>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
@@ -713,6 +719,9 @@
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
@@ -745,6 +754,9 @@
         <v>7</v>
       </c>
       <c r="E7" s="11"/>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
@@ -760,6 +772,9 @@
         <v>7</v>
       </c>
       <c r="E8" s="15"/>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
@@ -775,6 +790,9 @@
         <v>7</v>
       </c>
       <c r="E9" s="11"/>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
@@ -799,7 +817,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="9">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>7</v>
@@ -854,6 +872,9 @@
       <c r="E14" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
@@ -886,8 +907,11 @@
         <v>7</v>
       </c>
       <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -901,8 +925,12 @@
         <v>7</v>
       </c>
       <c r="E17" s="11"/>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/originalOutput.xlsx
+++ b/data/originalOutput.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CC1338-0864-1B4E-B91C-6AB7A0695E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6E1C6F-6F31-D840-93A4-2552506CEE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19820" yWindow="-18220" windowWidth="16420" windowHeight="13800" xr2:uid="{4F5B3F3D-A6FE-CC4D-99EE-881200216522}"/>
+    <workbookView xWindow="15620" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{4F5B3F3D-A6FE-CC4D-99EE-881200216522}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Item Number</t>
   </si>
@@ -622,7 +625,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -699,9 +702,6 @@
         <v>7</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
@@ -719,9 +719,6 @@
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
@@ -754,9 +751,6 @@
         <v>7</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
@@ -772,9 +766,6 @@
         <v>7</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
@@ -790,9 +781,6 @@
         <v>7</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
@@ -825,6 +813,9 @@
       <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
@@ -872,9 +863,6 @@
       <c r="E14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
@@ -911,7 +899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -925,11 +913,13 @@
         <v>7</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{7463EA16-9033-ED43-8861-1FA10BBBFDCE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F17">
+      <sortCondition ref="A1:A17"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
